--- a/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>AMST</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,78 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="3">
         <v>100</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -741,8 +744,11 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +776,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -823,26 +836,29 @@
       <c r="E12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +918,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +963,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,19 +1041,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1029,8 +1062,8 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1038,49 +1071,55 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1300</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>3600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1096,37 +1135,43 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1199,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,19 +1423,22 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1377,8 +1446,8 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1386,37 +1455,43 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,23 +1618,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E41" s="3">
         <v>16400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1562,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,23 +1680,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1620,8 +1712,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,23 +1744,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1678,23 +1776,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E46" s="3">
         <v>16800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3400</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1707,8 +1808,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1840,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1745,14 +1852,14 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1765,13 +1872,16 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E49" s="3">
         <v>1300</v>
@@ -1779,8 +1889,8 @@
       <c r="F49" s="3">
         <v>1300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>1300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1794,8 +1904,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1968,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1863,11 +1982,11 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1881,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,23 +2032,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E54" s="3">
         <v>18200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4800</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1939,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,22 +2094,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1994,8 +2124,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2003,11 +2136,11 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2023,23 +2156,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,23 +2188,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,8 +2220,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2252,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2284,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,23 +2380,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2255,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,23 +2554,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,23 +2682,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E76" s="3">
         <v>16600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4200</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2831,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2646,16 +2844,16 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2663,8 +2861,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3021,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3069,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2870,8 +3090,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -2879,8 +3099,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3163,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2946,28 +3175,31 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,28 +3337,31 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>12800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3124,8 +3369,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3401,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E102" s="3">
         <v>12300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>AMST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="3">
         <v>100</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -747,8 +751,11 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -779,8 +786,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,8 +821,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,26 +853,29 @@
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,40 +990,44 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1005,31 +1035,34 @@
         <v>-2300</v>
       </c>
       <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,8 +1075,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1053,11 +1087,11 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1065,8 +1099,8 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1074,8 +1108,11 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1083,31 +1120,34 @@
         <v>-2100</v>
       </c>
       <c r="E21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>-2400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1115,14 +1155,14 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>3600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1138,8 +1178,11 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1147,31 +1190,34 @@
         <v>-2300</v>
       </c>
       <c r="E23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1202,8 +1248,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,8 +1283,11 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1243,31 +1295,34 @@
         <v>-2300</v>
       </c>
       <c r="E26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1275,31 +1330,34 @@
         <v>-2300</v>
       </c>
       <c r="E27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,8 +1493,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1437,11 +1507,11 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1449,8 +1519,8 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1458,8 +1528,11 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1467,31 +1540,34 @@
         <v>-2300</v>
       </c>
       <c r="E33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,8 +1598,11 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1531,68 +1610,74 @@
         <v>-2300</v>
       </c>
       <c r="E35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,26 +1705,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E41" s="3">
         <v>13700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,8 +1738,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,8 +1773,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1692,17 +1785,17 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,8 +1808,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,26 +1843,29 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1779,26 +1878,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E46" s="3">
         <v>14800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3400</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +1913,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1843,8 +1948,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1855,14 +1963,14 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1875,8 +1983,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1884,7 +1995,7 @@
         <v>1400</v>
       </c>
       <c r="E49" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F49" s="3">
         <v>1300</v>
@@ -1892,8 +2003,8 @@
       <c r="G49" s="3">
         <v>1300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>1300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1907,8 +2018,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,8 +2088,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1985,11 +2105,11 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2003,8 +2123,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,26 +2158,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E54" s="3">
         <v>16300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4800</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2067,8 +2193,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,25 +2225,26 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2127,8 +2258,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2139,11 +2273,11 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2159,26 +2293,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,8 +2328,11 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2200,17 +2340,17 @@
         <v>1000</v>
       </c>
       <c r="E60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2223,8 +2363,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2255,8 +2398,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2287,8 +2433,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,8 +2538,11 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2392,17 +2550,17 @@
         <v>1000</v>
       </c>
       <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2573,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,26 +2728,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2763,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,26 +2868,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E76" s="3">
         <v>15300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4200</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2717,8 +2903,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,45 +2938,51 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2795,31 +2990,34 @@
         <v>-2300</v>
       </c>
       <c r="E81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2847,16 +3046,16 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2864,8 +3063,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,8 +3290,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3093,8 +3314,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3102,8 +3323,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,8 +3393,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3178,28 +3408,31 @@
         <v>-200</v>
       </c>
       <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,8 +3583,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3349,22 +3595,22 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>12800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3372,8 +3618,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,36 +3653,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>AMST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,111 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,8 +803,14 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,8 +844,14 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +865,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,26 +884,32 @@
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +943,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +984,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1025,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,8 +1043,10 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1000,69 +1054,81 @@
         <v>2500</v>
       </c>
       <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1142,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1090,64 +1158,76 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1158,17 +1238,17 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>3600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1181,43 +1261,55 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-5100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1343,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1384,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-5100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-5100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1507,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1548,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1630,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1510,64 +1650,76 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-5100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1753,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-5100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,32 +1878,34 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F41" s="3">
         <v>12100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>13700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>16400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,8 +1915,14 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,8 +1956,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1785,23 +1971,23 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +1997,14 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,31 +2038,37 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1881,32 +2079,38 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F46" s="3">
         <v>12800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>14800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>16800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,8 +2120,14 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,8 +2161,14 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1966,16 +2182,16 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -1986,31 +2202,37 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F49" s="3">
         <v>1400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1400</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1300</v>
       </c>
       <c r="H49" s="3">
         <v>1300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2021,8 +2243,14 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2325,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2108,14 +2348,14 @@
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2126,8 +2366,14 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,32 +2407,38 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F54" s="3">
         <v>14200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>16300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>18200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4800</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2448,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,8 +2486,10 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2238,19 +2500,19 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2261,8 +2523,14 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2276,14 +2544,14 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2296,32 +2564,38 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,32 +2605,38 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,8 +2646,14 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,8 +2687,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2728,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,32 +2851,38 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2892,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +3032,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,32 +3073,38 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-18300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-16000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-7200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +3114,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,32 +3237,38 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F76" s="3">
         <v>13200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>15300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>16600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3278,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3319,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-5100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3427,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3049,25 +3447,31 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3669,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3731,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3317,17 +3759,23 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,13 +3850,19 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
@@ -3411,28 +3871,34 @@
         <v>-200</v>
       </c>
       <c r="G94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,43 +4072,55 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>12800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>4800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +4154,51 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>12300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>AMST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,105 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="I8" s="3">
         <v>100</v>
       </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
@@ -768,8 +771,11 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +815,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +879,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,26 +903,29 @@
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,8 +1070,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1054,81 +1080,87 @@
         <v>2500</v>
       </c>
       <c r="E17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-2300</v>
       </c>
       <c r="G18" s="3">
         <v>-2300</v>
       </c>
       <c r="H18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1176,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1164,11 +1197,11 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1176,8 +1209,8 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1185,49 +1218,55 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-2100</v>
       </c>
       <c r="G21" s="3">
         <v>-2100</v>
       </c>
       <c r="H21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1244,14 +1283,14 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>3600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1267,49 +1306,55 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-2300</v>
       </c>
       <c r="G23" s="3">
         <v>-2300</v>
       </c>
       <c r="H23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-5100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1394,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-2300</v>
       </c>
       <c r="G26" s="3">
         <v>-2300</v>
       </c>
       <c r="H26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-5100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-2300</v>
       </c>
       <c r="G27" s="3">
         <v>-2300</v>
       </c>
       <c r="H27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-5100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1702,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1656,11 +1725,11 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1668,8 +1737,8 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1677,49 +1746,55 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-2300</v>
       </c>
       <c r="G33" s="3">
         <v>-2300</v>
       </c>
       <c r="H33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-5100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-2300</v>
       </c>
       <c r="G35" s="3">
         <v>-2300</v>
       </c>
       <c r="H35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-5100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,35 +1965,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E41" s="3">
         <v>10600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,8 +2007,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2051,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1971,26 +2063,26 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2095,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,35 +2139,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,35 +2183,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E46" s="3">
         <v>10800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2227,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2271,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2188,14 +2295,14 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,8 +2315,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2220,13 +2330,13 @@
         <v>1300</v>
       </c>
       <c r="F49" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G49" s="3">
         <v>1400</v>
       </c>
       <c r="H49" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I49" s="3">
         <v>1300</v>
@@ -2234,8 +2344,8 @@
       <c r="J49" s="3">
         <v>1300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>1300</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2249,8 +2359,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2447,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2354,11 +2473,11 @@
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2372,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,35 +2535,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E54" s="3">
         <v>12200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2617,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2497,25 +2627,25 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>100</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2529,13 +2659,16 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2550,11 +2683,11 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2570,35 +2703,38 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,35 +2747,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1000</v>
       </c>
       <c r="G60" s="3">
         <v>1000</v>
       </c>
       <c r="H60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,8 +2791,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2835,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2879,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,35 +3011,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1000</v>
       </c>
       <c r="G66" s="3">
         <v>1000</v>
       </c>
       <c r="H66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,35 +3249,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,35 +3425,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E76" s="3">
         <v>11100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-2300</v>
       </c>
       <c r="G81" s="3">
         <v>-2300</v>
       </c>
       <c r="H81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-5100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3453,16 +3651,16 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>100</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3470,8 +3668,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1200</v>
+        <v>-2600</v>
       </c>
       <c r="E89" s="3">
         <v>-1200</v>
       </c>
       <c r="F89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3952,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3765,8 +3985,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -3774,8 +3994,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,16 +4082,19 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-200</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
@@ -3877,28 +4106,31 @@
         <v>-200</v>
       </c>
       <c r="I94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,17 +4320,20 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -4096,22 +4341,22 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>12800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4119,8 +4364,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4408,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
   <si>
     <t>AMST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,77 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,34 +743,34 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
@@ -774,8 +778,11 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,26 +920,29 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E17" s="3">
         <v>2500</v>
       </c>
       <c r="F17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-2300</v>
       </c>
       <c r="H18" s="3">
         <v>-2300</v>
       </c>
       <c r="I18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1200,11 +1234,11 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1212,8 +1246,8 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1221,52 +1255,58 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-2100</v>
       </c>
       <c r="H21" s="3">
         <v>-2100</v>
       </c>
       <c r="I21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-2400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1286,14 +1326,14 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>3600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1309,52 +1349,58 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2300</v>
       </c>
       <c r="H23" s="3">
         <v>-2300</v>
       </c>
       <c r="I23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-5100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-2300</v>
       </c>
       <c r="H26" s="3">
         <v>-2300</v>
       </c>
       <c r="I26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-5100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-2300</v>
       </c>
       <c r="H27" s="3">
         <v>-2300</v>
       </c>
       <c r="I27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-5100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1728,11 +1798,11 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1740,8 +1810,8 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1749,52 +1819,58 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-2300</v>
       </c>
       <c r="H33" s="3">
         <v>-2300</v>
       </c>
       <c r="I33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-5100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-2300</v>
       </c>
       <c r="H35" s="3">
         <v>-2300</v>
       </c>
       <c r="I35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-5100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,38 +2052,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E41" s="3">
         <v>7800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,8 +2097,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2066,26 +2159,26 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,38 +2238,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,38 +2285,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E46" s="3">
         <v>8500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2332,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2298,14 +2406,14 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,13 +2426,16 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E49" s="3">
         <v>1300</v>
@@ -2333,13 +2444,13 @@
         <v>1300</v>
       </c>
       <c r="G49" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H49" s="3">
         <v>1400</v>
       </c>
       <c r="I49" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J49" s="3">
         <v>1300</v>
@@ -2347,8 +2458,8 @@
       <c r="K49" s="3">
         <v>1300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>1300</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,37 +2567,40 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,38 +2661,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E54" s="3">
         <v>10000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,37 +2748,38 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>100</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2662,16 +2793,19 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2686,11 +2820,11 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2706,38 +2840,41 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,8 +2887,11 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2759,29 +2899,29 @@
         <v>800</v>
       </c>
       <c r="E60" s="3">
+        <v>800</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1000</v>
       </c>
       <c r="H60" s="3">
         <v>1000</v>
       </c>
       <c r="I60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2934,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2838,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,8 +3169,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3023,29 +3181,29 @@
         <v>800</v>
       </c>
       <c r="E66" s="3">
+        <v>800</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1000</v>
       </c>
       <c r="H66" s="3">
         <v>1000</v>
       </c>
       <c r="I66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,38 +3423,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,38 +3611,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E76" s="3">
         <v>9200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-2300</v>
       </c>
       <c r="H81" s="3">
         <v>-2300</v>
       </c>
       <c r="I81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-5100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3654,16 +3853,16 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>100</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -3671,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2600</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-1200</v>
       </c>
       <c r="F89" s="3">
         <v>-1200</v>
       </c>
       <c r="G89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3988,8 +4209,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -3997,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,19 +4312,22 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
@@ -4109,28 +4339,31 @@
         <v>-200</v>
       </c>
       <c r="J94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,20 +4566,23 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -4344,22 +4590,22 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>12800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4367,8 +4613,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>AMST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,138 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,26 +951,32 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2100</v>
       </c>
       <c r="H17" s="3">
         <v>2500</v>
       </c>
       <c r="I17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,13 +1277,15 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1237,81 +1305,93 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-2400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1329,17 +1409,17 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>3600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,55 +1432,67 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,13 +1909,19 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1801,76 +1941,88 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,44 +2225,46 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F41" s="3">
         <v>8900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>10600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>10700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>12100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>13700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>16400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,8 +2274,14 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,13 +2327,19 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2162,29 +2348,29 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,43 +2433,49 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>600</v>
+      </c>
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>200</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -2288,44 +2486,50 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F46" s="3">
         <v>9500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>8500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>10800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>11100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>12800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>14800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>16800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2539,14 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2409,16 +2625,16 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>100</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2429,43 +2645,49 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F49" s="3">
         <v>1200</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1300</v>
       </c>
       <c r="G49" s="3">
         <v>1300</v>
       </c>
       <c r="H49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J49" s="3">
         <v>1400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1300</v>
       </c>
       <c r="L49" s="3">
         <v>1300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N49" s="3">
+        <v>1300</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2596,8 +2836,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2605,8 +2845,8 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,44 +2910,50 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F54" s="3">
         <v>10800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>10000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>12200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>12500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>14200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>16300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>18200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2963,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,22 +3009,24 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -2773,19 +3035,19 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="N57" s="3">
+        <v>100</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
@@ -2796,16 +3058,22 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2823,14 +3091,14 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2843,44 +3111,50 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,44 +3164,50 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,8 +3217,14 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,44 +3482,50 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
+        <v>700</v>
+      </c>
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3535,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,44 +3768,50 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-27100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-24900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-22600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-20200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-18300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-16000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-13700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-7200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3821,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,44 +3980,50 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F76" s="3">
         <v>9900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>9200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>11100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>11700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>13200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>15300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>16600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +4033,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3856,25 +4254,31 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4212,17 +4654,23 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4324,16 +4784,16 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
@@ -4342,28 +4802,34 @@
         <v>-200</v>
       </c>
       <c r="K94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>12800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>4800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>12300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>AMST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,96 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
-      </c>
-      <c r="E8" s="3">
-        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
@@ -760,34 +763,34 @@
         <v>200</v>
       </c>
       <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="M8" s="3">
         <v>100</v>
       </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
+      <c r="Q8" s="3">
+        <v>0</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
@@ -795,8 +798,11 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +854,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,26 +970,29 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>900</v>
       </c>
       <c r="E17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2500</v>
       </c>
       <c r="H17" s="3">
         <v>2500</v>
       </c>
       <c r="I17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-700</v>
       </c>
       <c r="E18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-2300</v>
       </c>
       <c r="K18" s="3">
         <v>-2300</v>
       </c>
       <c r="L18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,13 +1311,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1311,11 +1344,11 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1323,8 +1356,8 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1332,69 +1365,75 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-500</v>
       </c>
       <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-2100</v>
       </c>
       <c r="K21" s="3">
         <v>-2100</v>
       </c>
       <c r="L21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-2400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1415,14 +1454,14 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>3600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1438,61 +1477,67 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-700</v>
       </c>
       <c r="E23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-2300</v>
       </c>
       <c r="K23" s="3">
         <v>-2300</v>
       </c>
       <c r="L23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-5100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1589,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-700</v>
       </c>
       <c r="E26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-2300</v>
       </c>
       <c r="K26" s="3">
         <v>-2300</v>
       </c>
       <c r="L26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-5100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-700</v>
       </c>
       <c r="E27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-2300</v>
       </c>
       <c r="K27" s="3">
         <v>-2300</v>
       </c>
       <c r="L27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-5100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,13 +1981,16 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1947,11 +2016,11 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -1959,8 +2028,8 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -1968,61 +2037,67 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-700</v>
       </c>
       <c r="E33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-2300</v>
       </c>
       <c r="K33" s="3">
         <v>-2300</v>
       </c>
       <c r="L33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-5100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-700</v>
       </c>
       <c r="E35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-2300</v>
       </c>
       <c r="K35" s="3">
         <v>-2300</v>
       </c>
       <c r="L35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-5100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,47 +2312,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,8 +2366,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2422,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,7 +2434,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2354,26 +2446,26 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,8 +2478,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,47 +2534,50 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>600</v>
       </c>
       <c r="F45" s="3">
         <v>600</v>
       </c>
       <c r="G45" s="3">
+        <v>600</v>
+      </c>
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,47 +2590,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E46" s="3">
         <v>8300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,8 +2646,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2702,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2631,14 +2738,14 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,22 +2758,25 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1300</v>
       </c>
       <c r="H49" s="3">
         <v>1300</v>
@@ -2675,13 +2785,13 @@
         <v>1300</v>
       </c>
       <c r="J49" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K49" s="3">
         <v>1400</v>
       </c>
       <c r="L49" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M49" s="3">
         <v>1300</v>
@@ -2689,8 +2799,8 @@
       <c r="N49" s="3">
         <v>1300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="O49" s="3">
+        <v>1300</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -2704,8 +2814,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2926,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2842,14 +2961,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
@@ -2863,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,47 +3038,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E54" s="3">
         <v>9400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,46 +3140,47 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>100</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
@@ -3064,8 +3194,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3097,11 +3230,11 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3117,47 +3250,50 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,47 +3306,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>700</v>
       </c>
       <c r="F60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G60" s="3">
         <v>800</v>
       </c>
       <c r="H60" s="3">
+        <v>800</v>
+      </c>
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1000</v>
       </c>
       <c r="K60" s="3">
         <v>1000</v>
       </c>
       <c r="L60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,8 +3362,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3418,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3474,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,47 +3642,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>700</v>
       </c>
       <c r="F66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G66" s="3">
         <v>800</v>
       </c>
       <c r="H66" s="3">
+        <v>800</v>
+      </c>
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1000</v>
       </c>
       <c r="K66" s="3">
         <v>1000</v>
       </c>
       <c r="L66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,47 +3944,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>30900</v>
+        <v>-31600</v>
       </c>
       <c r="E72" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-29300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-27100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,47 +4168,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E76" s="3">
         <v>8600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-700</v>
       </c>
       <c r="E81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-2300</v>
       </c>
       <c r="K81" s="3">
         <v>-2300</v>
       </c>
       <c r="L81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-5100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4260,16 +4458,16 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>100</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4277,8 +4475,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>800</v>
+        <v>-1000</v>
       </c>
       <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2600</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1200</v>
       </c>
       <c r="I89" s="3">
         <v>-1200</v>
       </c>
       <c r="J89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4835,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4660,8 +4880,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -4669,8 +4889,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5001,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4790,13 +5019,13 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-200</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
@@ -4808,28 +5037,31 @@
         <v>-200</v>
       </c>
       <c r="M94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,29 +5303,32 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -5091,22 +5336,22 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>12800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
@@ -5114,8 +5359,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="E102" s="3">
+        <v>900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
@@ -4842,25 +4842,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
   <si>
     <t>AMST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,92 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -754,10 +758,10 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
-      </c>
-      <c r="F8" s="3">
-        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
@@ -766,34 +770,34 @@
         <v>200</v>
       </c>
       <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
@@ -801,8 +805,11 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -973,26 +987,29 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2500</v>
       </c>
       <c r="I17" s="3">
         <v>2500</v>
       </c>
       <c r="J17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-2300</v>
       </c>
       <c r="L18" s="3">
         <v>-2300</v>
       </c>
       <c r="M18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1347,11 +1381,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1359,8 +1393,8 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1368,75 +1402,81 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-2100</v>
       </c>
       <c r="L21" s="3">
         <v>-2100</v>
       </c>
       <c r="M21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-2400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1457,14 +1497,14 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>3600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1480,64 +1520,70 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-2300</v>
       </c>
       <c r="L23" s="3">
         <v>-2300</v>
       </c>
       <c r="M23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-5100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-2300</v>
       </c>
       <c r="L26" s="3">
         <v>-2300</v>
       </c>
       <c r="M26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-5100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-2300</v>
       </c>
       <c r="L27" s="3">
         <v>-2300</v>
       </c>
       <c r="M27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-5100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2019,11 +2089,11 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2031,8 +2101,8 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2040,64 +2110,70 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-2300</v>
       </c>
       <c r="L33" s="3">
         <v>-2300</v>
       </c>
       <c r="M33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-5100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-2300</v>
       </c>
       <c r="L35" s="3">
         <v>-2300</v>
       </c>
       <c r="M35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-5100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,50 +2399,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E41" s="3">
         <v>7000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,8 +2456,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,19 +2515,22 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2449,26 +2542,26 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2481,8 +2574,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,50 +2633,53 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>600</v>
       </c>
       <c r="G45" s="3">
         <v>600</v>
       </c>
       <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,50 +2692,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E46" s="3">
         <v>7400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2751,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2741,14 +2849,14 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,25 +2869,28 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>800</v>
+      </c>
+      <c r="E49" s="3">
         <v>900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1300</v>
       </c>
       <c r="I49" s="3">
         <v>1300</v>
@@ -2788,13 +2899,13 @@
         <v>1300</v>
       </c>
       <c r="K49" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="L49" s="3">
         <v>1400</v>
       </c>
       <c r="M49" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="N49" s="3">
         <v>1300</v>
@@ -2802,8 +2913,8 @@
       <c r="O49" s="3">
         <v>1300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
+      <c r="P49" s="3">
+        <v>1300</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2964,14 +3084,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,50 +3164,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E54" s="3">
         <v>8300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3150,40 +3281,40 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+      <c r="P57" s="3">
+        <v>100</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
@@ -3197,8 +3328,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3233,11 +3367,11 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>2000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3253,50 +3387,53 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,50 +3446,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>700</v>
       </c>
       <c r="F60" s="3">
         <v>700</v>
       </c>
       <c r="G60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H60" s="3">
         <v>800</v>
       </c>
       <c r="I60" s="3">
+        <v>800</v>
+      </c>
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1000</v>
       </c>
       <c r="L60" s="3">
         <v>1000</v>
       </c>
       <c r="M60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,8 +3505,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3421,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,50 +3800,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>700</v>
       </c>
       <c r="F66" s="3">
         <v>700</v>
       </c>
       <c r="G66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H66" s="3">
         <v>800</v>
       </c>
       <c r="I66" s="3">
+        <v>800</v>
+      </c>
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1000</v>
       </c>
       <c r="L66" s="3">
         <v>1000</v>
       </c>
       <c r="M66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,50 +4118,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,50 +4354,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-2300</v>
       </c>
       <c r="L81" s="3">
         <v>-2300</v>
       </c>
       <c r="M81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-5100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4461,16 +4660,16 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>100</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4478,8 +4677,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2600</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-1200</v>
       </c>
       <c r="J89" s="3">
         <v>-1200</v>
       </c>
       <c r="K89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4854,17 +5075,17 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -4883,8 +5104,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
@@ -4892,8 +5113,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5022,13 +5252,13 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
@@ -5040,28 +5270,31 @@
         <v>-200</v>
       </c>
       <c r="N94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5315,23 +5561,23 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>2500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -5339,22 +5585,22 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>12800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
@@ -5362,8 +5608,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>AMST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,110 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
@@ -773,34 +777,34 @@
         <v>200</v>
       </c>
       <c r="J8" s="3">
+        <v>200</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="O8" s="3">
         <v>100</v>
       </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
+      <c r="S8" s="3">
+        <v>0</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
@@ -808,8 +812,11 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -990,26 +1004,29 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,67 +1231,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2500</v>
       </c>
       <c r="J17" s="3">
         <v>2500</v>
       </c>
       <c r="K17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2200</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,58 +1303,61 @@
         <v>-1000</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-2300</v>
       </c>
       <c r="M18" s="3">
         <v>-2300</v>
       </c>
       <c r="N18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,13 +1379,14 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1384,11 +1418,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1396,8 +1430,8 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,58 +1451,61 @@
         <v>-800</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-2100</v>
       </c>
       <c r="M21" s="3">
         <v>-2100</v>
       </c>
       <c r="N21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1475,11 +1515,11 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1500,14 +1540,14 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>3600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1523,8 +1563,11 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1532,58 +1575,61 @@
         <v>-900</v>
       </c>
       <c r="E23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-2300</v>
       </c>
       <c r="M23" s="3">
         <v>-2300</v>
       </c>
       <c r="N23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-5100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2100</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1709,58 +1761,61 @@
         <v>-900</v>
       </c>
       <c r="E26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-2300</v>
       </c>
       <c r="M26" s="3">
         <v>-2300</v>
       </c>
       <c r="N26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-5100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2100</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1768,58 +1823,61 @@
         <v>-900</v>
       </c>
       <c r="E27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-2300</v>
       </c>
       <c r="M27" s="3">
         <v>-2300</v>
       </c>
       <c r="N27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-5100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2100</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,13 +2121,16 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2092,11 +2162,11 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2104,8 +2174,8 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2113,8 +2183,11 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2122,58 +2195,61 @@
         <v>-900</v>
       </c>
       <c r="E33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-2300</v>
       </c>
       <c r="M33" s="3">
         <v>-2300</v>
       </c>
       <c r="N33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-5100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2100</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2240,122 +2319,128 @@
         <v>-900</v>
       </c>
       <c r="E35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-2300</v>
       </c>
       <c r="M35" s="3">
         <v>-2300</v>
       </c>
       <c r="N35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-5100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2100</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,53 +2486,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E41" s="3">
         <v>6100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2527,13 +2620,13 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2545,26 +2638,26 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,53 +2732,56 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>600</v>
       </c>
       <c r="H45" s="3">
         <v>600</v>
       </c>
       <c r="I45" s="3">
+        <v>600</v>
+      </c>
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,53 +2794,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E46" s="3">
         <v>6300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2852,14 +2960,14 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2881,19 +2992,19 @@
         <v>800</v>
       </c>
       <c r="E49" s="3">
+        <v>800</v>
+      </c>
+      <c r="F49" s="3">
         <v>900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1300</v>
       </c>
       <c r="J49" s="3">
         <v>1300</v>
@@ -2902,13 +3013,13 @@
         <v>1300</v>
       </c>
       <c r="L49" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="M49" s="3">
         <v>1400</v>
       </c>
       <c r="N49" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="O49" s="3">
         <v>1300</v>
@@ -2916,8 +3027,8 @@
       <c r="P49" s="3">
         <v>1300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
+      <c r="Q49" s="3">
+        <v>1300</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3087,14 +3207,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,53 +3290,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E54" s="3">
         <v>7300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4800</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3284,40 +3415,40 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
+      <c r="Q57" s="3">
+        <v>100</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3370,11 +3504,11 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>2000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3390,8 +3524,11 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3399,44 +3536,44 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3458,44 +3598,44 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
+        <v>300</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>700</v>
       </c>
       <c r="G60" s="3">
         <v>700</v>
       </c>
       <c r="H60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I60" s="3">
         <v>800</v>
       </c>
       <c r="J60" s="3">
+        <v>800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1000</v>
       </c>
       <c r="M60" s="3">
         <v>1000</v>
       </c>
       <c r="N60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,8 +3648,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,8 +3958,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3812,44 +3970,44 @@
         <v>300</v>
       </c>
       <c r="E66" s="3">
+        <v>300</v>
+      </c>
+      <c r="F66" s="3">
         <v>400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>700</v>
       </c>
       <c r="G66" s="3">
         <v>700</v>
       </c>
       <c r="H66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I66" s="3">
         <v>800</v>
       </c>
       <c r="J66" s="3">
+        <v>800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1000</v>
       </c>
       <c r="M66" s="3">
         <v>1000</v>
       </c>
       <c r="N66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,53 +4292,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-31600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-30900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-27100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-24900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,53 +4540,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E76" s="3">
         <v>7000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4200</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4548,58 +4743,61 @@
         <v>-900</v>
       </c>
       <c r="E81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-2300</v>
       </c>
       <c r="M81" s="3">
         <v>-2300</v>
       </c>
       <c r="N81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-5100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2100</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4663,16 +4862,16 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3">
+        <v>100</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4984,58 +5201,61 @@
         <v>-700</v>
       </c>
       <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2600</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1200</v>
       </c>
       <c r="K89" s="3">
         <v>-1200</v>
       </c>
       <c r="L89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5078,17 +5299,17 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -5107,8 +5328,8 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5255,13 +5485,13 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
@@ -5273,28 +5503,31 @@
         <v>-200</v>
       </c>
       <c r="O94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5564,23 +5810,23 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5588,22 +5834,22 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>12800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2200</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
